--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value623.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value623.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.260130621049554</v>
+        <v>1.292711734771729</v>
       </c>
       <c r="B1">
-        <v>2.463689567626234</v>
+        <v>2.941659927368164</v>
       </c>
       <c r="C1">
-        <v>4.205498038979242</v>
+        <v>5.214778423309326</v>
       </c>
       <c r="D1">
-        <v>2.726145496983959</v>
+        <v>1.842502117156982</v>
       </c>
       <c r="E1">
-        <v>1.048385446053453</v>
+        <v>1.012032866477966</v>
       </c>
     </row>
   </sheetData>
